--- a/data_xlsx/2021_full_new.xlsx
+++ b/data_xlsx/2021_full_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D727812-5760-4E47-A715-8BC4F101BC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0D6267-6282-4907-B03A-678991274FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="17" activeTab="18" xr2:uid="{7641FC35-5562-4518-A86F-46CD1C5D6D09}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="20" activeTab="24" xr2:uid="{7641FC35-5562-4518-A86F-46CD1C5D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="232">
   <si>
     <t>Республика Башкортостан</t>
   </si>
@@ -727,9 +727,6 @@
     <t>Средств служащих</t>
   </si>
   <si>
-    <t>в т.ч. за счет средств федерального бюджета</t>
-  </si>
-  <si>
     <t>в т.ч. за счет средств служащих</t>
   </si>
   <si>
@@ -2126,16 +2123,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2239,6 +2236,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2246,49 +2276,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="186" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="187"/>
       <c r="C1" s="187"/>
@@ -5844,9 +5841,9 @@
       <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5881,7 +5878,7 @@
       <c r="P3" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="217" t="s">
+      <c r="Q3" s="216" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5902,7 +5899,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>27</v>
@@ -5917,7 +5914,7 @@
       <c r="N4" s="213"/>
       <c r="O4" s="213"/>
       <c r="P4" s="213"/>
-      <c r="Q4" s="218"/>
+      <c r="Q4" s="217"/>
     </row>
     <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="127" t="s">
@@ -6893,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="139" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6927,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="F8" s="139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6961,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="139" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6995,7 +6992,7 @@
         <v>-1</v>
       </c>
       <c r="F12" s="139" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7029,7 +7026,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7063,7 +7060,7 @@
         <v>-6</v>
       </c>
       <c r="F16" s="141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7203,9 +7200,9 @@
       <c r="K2" s="221"/>
     </row>
     <row r="3" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
     </row>
     <row r="4" spans="2:15" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="210" t="s">
@@ -7227,7 +7224,7 @@
       </c>
       <c r="I4" s="225"/>
       <c r="J4" s="222" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K4" s="226" t="s">
         <v>166</v>
@@ -7973,11 +7970,11 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
     </row>
@@ -9058,7 +9055,7 @@
     </row>
     <row r="23" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="227"/>
       <c r="D23" s="227"/>
@@ -9185,12 +9182,12 @@
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="219" t="s">
@@ -10245,7 +10242,7 @@
     </row>
     <row r="24" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="237" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="237"/>
       <c r="D24" s="237"/>
@@ -10299,7 +10296,7 @@
   </sheetPr>
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -10361,8 +10358,8 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
       <c r="K3" s="37"/>
       <c r="L3" s="38"/>
     </row>
@@ -10376,7 +10373,7 @@
       <c r="D4" s="234" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="263"/>
+      <c r="E4" s="252"/>
       <c r="F4" s="191" t="s">
         <v>195</v>
       </c>
@@ -10390,79 +10387,79 @@
       <c r="J4" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="253" t="s">
+      <c r="K4" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="253"/>
-      <c r="M4" s="253"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
       <c r="O4" s="114"/>
     </row>
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="219"/>
       <c r="C5" s="251"/>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="255" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="254"/>
+      <c r="F5" s="261"/>
       <c r="G5" s="222" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="254"/>
-      <c r="J5" s="259"/>
-      <c r="K5" s="256" t="s">
+      <c r="I5" s="261"/>
+      <c r="J5" s="266"/>
+      <c r="K5" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="253" t="s">
+      <c r="L5" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="253"/>
+      <c r="M5" s="264"/>
       <c r="O5" s="114"/>
     </row>
     <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="219"/>
       <c r="C6" s="251"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="254"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="261"/>
       <c r="G6" s="251"/>
       <c r="H6" s="205"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="259"/>
-      <c r="K6" s="257"/>
-      <c r="L6" s="256" t="s">
+      <c r="I6" s="261"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="253" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="261" t="s">
+      <c r="M6" s="258" t="s">
         <v>107</v>
       </c>
       <c r="O6" s="225" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="252" t="s">
+      <c r="P6" s="263" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="219"/>
       <c r="C7" s="223"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="255"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="262"/>
       <c r="G7" s="223"/>
       <c r="H7" s="206"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="258"/>
-      <c r="M7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="268"/>
       <c r="O7" s="225"/>
-      <c r="P7" s="252"/>
+      <c r="P7" s="263"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="127" t="s">
@@ -11223,26 +11220,17 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J24" s="138" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="J25" s="138" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F4:F7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="L5:M5"/>
@@ -11254,6 +11242,15 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11414,7 +11411,7 @@
         <v>149</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12445,10 +12442,10 @@
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="69"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
-      <c r="S3" s="216"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="218"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="219" t="s">
@@ -13700,22 +13697,22 @@
       <c r="C5" s="275"/>
       <c r="D5" s="275"/>
       <c r="E5" s="275" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="275"/>
       <c r="G5" s="276" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" s="277"/>
       <c r="I5" s="275" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J5" s="275"/>
       <c r="K5" s="219" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L5" s="219"/>
-      <c r="N5" s="252" t="s">
+      <c r="N5" s="263" t="s">
         <v>197</v>
       </c>
     </row>
@@ -13751,7 +13748,7 @@
       <c r="L6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="252"/>
+      <c r="N6" s="263"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="127" t="s">
@@ -14465,12 +14462,12 @@
       <c r="B4" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="253" t="s">
+      <c r="C4" s="264" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
       <c r="G4" s="234" t="s">
         <v>58</v>
       </c>
@@ -14487,33 +14484,33 @@
       <c r="P4" s="198"/>
       <c r="Q4" s="198"/>
       <c r="R4" s="199"/>
-      <c r="T4" s="252" t="s">
+      <c r="T4" s="263" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="219"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253" t="s">
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253" t="s">
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
+      <c r="L5" s="264"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
       <c r="O5" s="200"/>
       <c r="P5" s="201"/>
       <c r="Q5" s="201"/>
       <c r="R5" s="202"/>
-      <c r="T5" s="252"/>
+      <c r="T5" s="263"/>
     </row>
     <row r="6" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="219"/>
@@ -14565,7 +14562,7 @@
       <c r="R6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="252"/>
+      <c r="T6" s="263"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="127" t="s">
@@ -15652,7 +15649,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="281" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="282"/>
       <c r="E4" s="285" t="s">
@@ -15667,19 +15664,19 @@
       <c r="B5" s="211"/>
       <c r="C5" s="283"/>
       <c r="D5" s="284"/>
-      <c r="E5" s="256" t="s">
+      <c r="E5" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="256" t="s">
+      <c r="F5" s="253" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="279" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="256" t="s">
+      <c r="H5" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="256" t="s">
+      <c r="I5" s="253" t="s">
         <v>126</v>
       </c>
     </row>
@@ -15691,11 +15688,11 @@
       <c r="D6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
       <c r="G6" s="280"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
       <c r="O6" s="66"/>
     </row>
     <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16268,7 +16265,7 @@
     <row r="6" spans="2:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="211"/>
       <c r="C6" s="271" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" s="273"/>
       <c r="E6" s="271" t="s">
@@ -16276,7 +16273,7 @@
       </c>
       <c r="F6" s="273"/>
       <c r="G6" s="271" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="273"/>
       <c r="I6" s="271" t="s">
@@ -16284,7 +16281,7 @@
       </c>
       <c r="J6" s="273"/>
       <c r="K6" s="271" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L6" s="273"/>
       <c r="M6" s="271" t="s">
@@ -17066,7 +17063,7 @@
     </row>
     <row r="24" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="288" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="288"/>
       <c r="D24" s="288"/>
@@ -17112,10 +17109,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V22"/>
+  <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17128,24 +17125,22 @@
     <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
       <c r="D1" s="73"/>
@@ -17165,10 +17160,8 @@
       <c r="R1" s="73"/>
       <c r="S1" s="73"/>
       <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-    </row>
-    <row r="2" spans="2:22" s="66" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:20" s="66" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="278" t="s">
         <v>94</v>
       </c>
@@ -17190,10 +17183,8 @@
       <c r="R2" s="278"/>
       <c r="S2" s="278"/>
       <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-    </row>
-    <row r="3" spans="2:22" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:20" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -17213,10 +17204,8 @@
       <c r="R3" s="73"/>
       <c r="S3" s="73"/>
       <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-    </row>
-    <row r="4" spans="2:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="219" t="s">
         <v>14</v>
       </c>
@@ -17233,21 +17222,19 @@
       <c r="I4" s="272"/>
       <c r="J4" s="272"/>
       <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="225" t="s">
+      <c r="L4" s="273"/>
+      <c r="M4" s="225" t="s">
         <v>138</v>
       </c>
+      <c r="N4" s="225"/>
       <c r="O4" s="225"/>
       <c r="P4" s="225"/>
       <c r="Q4" s="225"/>
       <c r="R4" s="225"/>
       <c r="S4" s="225"/>
       <c r="T4" s="225"/>
-      <c r="U4" s="225"/>
-      <c r="V4" s="225"/>
-    </row>
-    <row r="5" spans="2:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="219"/>
       <c r="C5" s="294" t="s">
         <v>15</v>
@@ -17262,27 +17249,25 @@
       <c r="G5" s="272"/>
       <c r="H5" s="272"/>
       <c r="I5" s="272"/>
-      <c r="J5" s="272"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="225" t="s">
+      <c r="J5" s="273"/>
+      <c r="K5" s="225" t="s">
         <v>139</v>
       </c>
-      <c r="M5" s="225"/>
-      <c r="N5" s="271" t="s">
+      <c r="L5" s="225"/>
+      <c r="M5" s="271" t="s">
         <v>144</v>
       </c>
+      <c r="N5" s="272"/>
       <c r="O5" s="272"/>
       <c r="P5" s="272"/>
       <c r="Q5" s="272"/>
-      <c r="R5" s="272"/>
-      <c r="S5" s="272"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="225" t="s">
-        <v>207</v>
-      </c>
-      <c r="V5" s="225"/>
-    </row>
-    <row r="6" spans="2:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="273"/>
+      <c r="S5" s="225" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="225"/>
+    </row>
+    <row r="6" spans="2:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="219"/>
       <c r="C6" s="295"/>
       <c r="D6" s="293"/>
@@ -17302,51 +17287,45 @@
         <v>205</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="K6" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="R6" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="S6" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="T6" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="P6" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="U6" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="V6" s="42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="127" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="159">
-        <f>F7+O7</f>
+        <f>F7+N7</f>
         <v>2656</v>
       </c>
       <c r="D7" s="65">
@@ -17367,55 +17346,49 @@
         <v>0</v>
       </c>
       <c r="I7" s="134">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J7" s="134">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K7" s="134">
-        <v>44</v>
+        <v>2229.1</v>
       </c>
       <c r="L7" s="134">
         <v>2229.1</v>
       </c>
       <c r="M7" s="134">
-        <v>2229.1</v>
+        <v>2277</v>
       </c>
       <c r="N7" s="134">
-        <v>2277</v>
-      </c>
-      <c r="O7" s="134">
         <v>2544</v>
       </c>
-      <c r="P7" s="65">
-        <f>O7/C7</f>
+      <c r="O7" s="65">
+        <f>N7/C7</f>
         <v>0.95783132530120485</v>
       </c>
+      <c r="P7" s="134">
+        <v>0</v>
+      </c>
       <c r="Q7" s="134">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R7" s="134">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="S7" s="134">
-        <v>30</v>
+        <v>13389.5</v>
       </c>
       <c r="T7" s="134">
-        <v>857</v>
-      </c>
-      <c r="U7" s="134">
         <v>13389.5</v>
       </c>
-      <c r="V7" s="134">
-        <v>13389.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="127" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="159">
-        <f t="shared" ref="C8:C21" si="0">F8+O8</f>
+        <f>F8+N8</f>
         <v>479</v>
       </c>
       <c r="D8" s="65">
@@ -17429,62 +17402,56 @@
         <v>32</v>
       </c>
       <c r="G8" s="65">
-        <f t="shared" ref="G8:G21" si="1">F8/C8</f>
+        <f t="shared" ref="G8:G21" si="0">F8/C8</f>
         <v>6.6805845511482248E-2</v>
       </c>
       <c r="H8" s="134">
         <v>19</v>
       </c>
       <c r="I8" s="134">
+        <v>1</v>
+      </c>
+      <c r="J8" s="134">
         <v>9</v>
       </c>
-      <c r="J8" s="134">
-        <v>1</v>
-      </c>
       <c r="K8" s="134">
-        <v>9</v>
+        <v>535.1</v>
       </c>
       <c r="L8" s="134">
         <v>535.1</v>
       </c>
       <c r="M8" s="134">
-        <v>535.1</v>
+        <v>415</v>
       </c>
       <c r="N8" s="134">
-        <v>415</v>
-      </c>
-      <c r="O8" s="134">
         <v>447</v>
       </c>
-      <c r="P8" s="65">
-        <f t="shared" ref="P8:P21" si="2">O8/C8</f>
+      <c r="O8" s="65">
+        <f>N8/C8</f>
         <v>0.93319415448851772</v>
       </c>
+      <c r="P8" s="134">
+        <v>339</v>
+      </c>
       <c r="Q8" s="134">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="R8" s="134">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="S8" s="134">
-        <v>0</v>
+        <v>1299.4000000000001</v>
       </c>
       <c r="T8" s="134">
-        <v>50</v>
-      </c>
-      <c r="U8" s="134">
-        <v>1299.4000000000001</v>
-      </c>
-      <c r="V8" s="134">
         <v>1298.5999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="127" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="159">
-        <f t="shared" si="0"/>
+        <f>F9+N9</f>
         <v>384</v>
       </c>
       <c r="D9" s="65">
@@ -17498,62 +17465,56 @@
         <v>33</v>
       </c>
       <c r="G9" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.59375E-2</v>
       </c>
       <c r="H9" s="134">
         <v>0</v>
       </c>
       <c r="I9" s="134">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J9" s="134">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K9" s="134">
-        <v>27</v>
+        <v>825</v>
       </c>
       <c r="L9" s="134">
-        <v>825</v>
+        <v>492</v>
       </c>
       <c r="M9" s="134">
-        <v>492</v>
+        <v>292</v>
       </c>
       <c r="N9" s="134">
-        <v>292</v>
-      </c>
-      <c r="O9" s="134">
         <v>351</v>
       </c>
-      <c r="P9" s="65">
-        <f t="shared" si="2"/>
+      <c r="O9" s="65">
+        <f>N9/C9</f>
         <v>0.9140625</v>
       </c>
+      <c r="P9" s="134">
+        <v>0</v>
+      </c>
       <c r="Q9" s="134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="134">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="S9" s="134">
-        <v>3</v>
+        <v>2266</v>
       </c>
       <c r="T9" s="134">
-        <v>179</v>
-      </c>
-      <c r="U9" s="134">
-        <v>2266</v>
-      </c>
-      <c r="V9" s="134">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="127" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="159">
-        <f t="shared" si="0"/>
+        <f>F10+N10</f>
         <v>1646</v>
       </c>
       <c r="D10" s="65">
@@ -17567,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="134">
@@ -17586,43 +17547,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="134">
-        <v>0</v>
+        <v>1433</v>
       </c>
       <c r="N10" s="134">
-        <v>1433</v>
-      </c>
-      <c r="O10" s="134">
         <v>1646</v>
       </c>
-      <c r="P10" s="65">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="O10" s="65">
+        <f>N10/C10</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="134">
+        <v>0</v>
       </c>
       <c r="Q10" s="134">
         <v>0</v>
       </c>
       <c r="R10" s="134">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="S10" s="134">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="T10" s="134">
-        <v>260</v>
-      </c>
-      <c r="U10" s="134">
-        <v>8850</v>
-      </c>
-      <c r="V10" s="134">
         <v>8359</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="127" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="159">
-        <f t="shared" si="0"/>
+        <f>F11+N11</f>
         <v>1172</v>
       </c>
       <c r="D11" s="65">
@@ -17636,62 +17591,56 @@
         <v>6</v>
       </c>
       <c r="G11" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1194539249146756E-3</v>
       </c>
       <c r="H11" s="134">
         <v>0</v>
       </c>
       <c r="I11" s="134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="134">
         <v>0</v>
       </c>
       <c r="K11" s="134">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L11" s="134">
         <v>67</v>
       </c>
       <c r="M11" s="134">
-        <v>67</v>
+        <v>1166</v>
       </c>
       <c r="N11" s="134">
         <v>1166</v>
       </c>
-      <c r="O11" s="134">
-        <v>1166</v>
-      </c>
-      <c r="P11" s="65">
-        <f t="shared" si="2"/>
+      <c r="O11" s="65">
+        <f>N11/C11</f>
         <v>0.99488054607508536</v>
       </c>
+      <c r="P11" s="134">
+        <v>184</v>
+      </c>
       <c r="Q11" s="134">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="R11" s="134">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="S11" s="134">
-        <v>0</v>
+        <v>5286</v>
       </c>
       <c r="T11" s="134">
-        <v>276</v>
-      </c>
-      <c r="U11" s="134">
         <v>5286</v>
       </c>
-      <c r="V11" s="134">
-        <v>5286</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="127" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="159">
-        <f t="shared" si="0"/>
+        <f>F12+N12</f>
         <v>186</v>
       </c>
       <c r="D12" s="65">
@@ -17705,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="134">
@@ -17724,43 +17673,37 @@
         <v>0</v>
       </c>
       <c r="M12" s="134">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="N12" s="134">
-        <v>181</v>
-      </c>
-      <c r="O12" s="134">
         <v>186</v>
       </c>
-      <c r="P12" s="65">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="O12" s="65">
+        <f>N12/C12</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="134">
+        <v>0</v>
       </c>
       <c r="Q12" s="134">
         <v>0</v>
       </c>
       <c r="R12" s="134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" s="134">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="T12" s="134">
-        <v>2</v>
-      </c>
-      <c r="U12" s="134">
-        <v>797</v>
-      </c>
-      <c r="V12" s="134">
         <v>813</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="127" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="159">
-        <f t="shared" si="0"/>
+        <f>F13+N13</f>
         <v>1350</v>
       </c>
       <c r="D13" s="65">
@@ -17774,7 +17717,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7407407407407408E-2</v>
       </c>
       <c r="H13" s="134">
@@ -17787,49 +17730,43 @@
         <v>0</v>
       </c>
       <c r="K13" s="134">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="L13" s="134">
-        <v>2040</v>
+        <v>1292</v>
       </c>
       <c r="M13" s="134">
-        <v>1292</v>
+        <v>1121</v>
       </c>
       <c r="N13" s="134">
-        <v>1121</v>
-      </c>
-      <c r="O13" s="134">
         <v>1313</v>
       </c>
-      <c r="P13" s="65">
-        <f t="shared" si="2"/>
+      <c r="O13" s="65">
+        <f>N13/C13</f>
         <v>0.97259259259259256</v>
       </c>
+      <c r="P13" s="134">
+        <v>0</v>
+      </c>
       <c r="Q13" s="134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" s="134">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="S13" s="134">
-        <v>3</v>
+        <v>7017</v>
       </c>
       <c r="T13" s="134">
-        <v>98</v>
-      </c>
-      <c r="U13" s="134">
-        <v>7017</v>
-      </c>
-      <c r="V13" s="134">
         <v>7496</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="159">
-        <f t="shared" si="0"/>
+        <f>F14+N14</f>
         <v>425</v>
       </c>
       <c r="D14" s="65">
@@ -17843,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.352941176470588E-3</v>
       </c>
       <c r="H14" s="134">
@@ -17859,46 +17796,40 @@
         <v>0</v>
       </c>
       <c r="L14" s="134">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M14" s="134">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="N14" s="134">
-        <v>315</v>
-      </c>
-      <c r="O14" s="134">
         <v>424</v>
       </c>
-      <c r="P14" s="65">
-        <f t="shared" si="2"/>
+      <c r="O14" s="65">
+        <f>N14/C14</f>
         <v>0.99764705882352944</v>
       </c>
+      <c r="P14" s="134">
+        <v>0</v>
+      </c>
       <c r="Q14" s="134">
         <v>0</v>
       </c>
       <c r="R14" s="134">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="S14" s="134">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="T14" s="134">
-        <v>164</v>
-      </c>
-      <c r="U14" s="134">
-        <v>2600</v>
-      </c>
-      <c r="V14" s="134">
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="159">
-        <f t="shared" si="0"/>
+        <f>F15+N15</f>
         <v>1021</v>
       </c>
       <c r="D15" s="65">
@@ -17912,7 +17843,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2321253672869733E-2</v>
       </c>
       <c r="H15" s="134">
@@ -17922,52 +17853,46 @@
         <v>0</v>
       </c>
       <c r="J15" s="134">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="134">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="L15" s="134">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M15" s="134">
-        <v>113</v>
+        <v>994</v>
       </c>
       <c r="N15" s="134">
-        <v>994</v>
-      </c>
-      <c r="O15" s="134">
         <v>988</v>
       </c>
-      <c r="P15" s="65">
-        <f t="shared" si="2"/>
+      <c r="O15" s="65">
+        <f>N15/C15</f>
         <v>0.96767874632713025</v>
       </c>
+      <c r="P15" s="134">
+        <v>0</v>
+      </c>
       <c r="Q15" s="134">
         <v>0</v>
       </c>
       <c r="R15" s="134">
-        <v>98</v>
+        <v>429</v>
       </c>
       <c r="S15" s="134">
-        <v>0</v>
+        <v>4409.74</v>
       </c>
       <c r="T15" s="134">
-        <v>429</v>
-      </c>
-      <c r="U15" s="134">
-        <v>4409.74</v>
-      </c>
-      <c r="V15" s="134">
         <v>3049.13</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="127" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="159">
-        <f t="shared" si="0"/>
+        <f>F16+N16</f>
         <v>1041</v>
       </c>
       <c r="D16" s="65">
@@ -17981,62 +17906,56 @@
         <v>25</v>
       </c>
       <c r="G16" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4015369836695485E-2</v>
       </c>
       <c r="H16" s="134">
         <v>0</v>
       </c>
       <c r="I16" s="134">
+        <v>2</v>
+      </c>
+      <c r="J16" s="134">
         <v>4</v>
       </c>
-      <c r="J16" s="134">
-        <v>2</v>
-      </c>
       <c r="K16" s="134">
-        <v>4</v>
+        <v>1531</v>
       </c>
       <c r="L16" s="134">
-        <v>1531</v>
+        <v>129</v>
       </c>
       <c r="M16" s="134">
-        <v>129</v>
+        <v>706</v>
       </c>
       <c r="N16" s="134">
-        <v>706</v>
-      </c>
-      <c r="O16" s="134">
         <v>1016</v>
       </c>
-      <c r="P16" s="65">
-        <f t="shared" si="2"/>
+      <c r="O16" s="65">
+        <f>N16/C16</f>
         <v>0.9759846301633045</v>
       </c>
+      <c r="P16" s="134">
+        <v>0</v>
+      </c>
       <c r="Q16" s="134">
         <v>0</v>
       </c>
       <c r="R16" s="134">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="S16" s="134">
-        <v>0</v>
+        <v>6102.7</v>
       </c>
       <c r="T16" s="134">
-        <v>394</v>
-      </c>
-      <c r="U16" s="134">
-        <v>6102.7</v>
-      </c>
-      <c r="V16" s="134">
         <v>6428</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="127" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="159">
-        <f t="shared" si="0"/>
+        <f>F17+N17</f>
         <v>605</v>
       </c>
       <c r="D17" s="65">
@@ -18050,62 +17969,56 @@
         <v>5</v>
       </c>
       <c r="G17" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.2644628099173556E-3</v>
       </c>
       <c r="H17" s="134">
         <v>0</v>
       </c>
       <c r="I17" s="134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="134">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="L17" s="134">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M17" s="134">
-        <v>89</v>
+        <v>510</v>
       </c>
       <c r="N17" s="134">
-        <v>510</v>
-      </c>
-      <c r="O17" s="134">
         <v>600</v>
       </c>
-      <c r="P17" s="65">
-        <f t="shared" si="2"/>
+      <c r="O17" s="65">
+        <f>N17/C17</f>
         <v>0.99173553719008267</v>
       </c>
+      <c r="P17" s="134">
+        <v>20</v>
+      </c>
       <c r="Q17" s="134">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R17" s="134">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S17" s="134">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="T17" s="134">
-        <v>69</v>
-      </c>
-      <c r="U17" s="134">
-        <v>2041</v>
-      </c>
-      <c r="V17" s="134">
         <v>2034</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="127" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="159">
-        <f t="shared" si="0"/>
+        <f>F18+N18</f>
         <v>1068</v>
       </c>
       <c r="D18" s="65">
@@ -18119,62 +18032,56 @@
         <v>17</v>
       </c>
       <c r="G18" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5917602996254682E-2</v>
       </c>
       <c r="H18" s="134">
         <v>0</v>
       </c>
       <c r="I18" s="134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="134">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K18" s="134">
-        <v>13</v>
+        <v>527.6</v>
       </c>
       <c r="L18" s="134">
-        <v>527.6</v>
+        <v>421</v>
       </c>
       <c r="M18" s="134">
-        <v>421</v>
+        <v>836</v>
       </c>
       <c r="N18" s="134">
-        <v>836</v>
-      </c>
-      <c r="O18" s="134">
         <v>1051</v>
       </c>
-      <c r="P18" s="65">
-        <f t="shared" si="2"/>
+      <c r="O18" s="65">
+        <f>N18/C18</f>
         <v>0.98408239700374533</v>
       </c>
+      <c r="P18" s="134">
+        <v>268</v>
+      </c>
       <c r="Q18" s="134">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="R18" s="134">
-        <v>137</v>
+        <v>778</v>
       </c>
       <c r="S18" s="134">
-        <v>2</v>
+        <v>5813.38</v>
       </c>
       <c r="T18" s="134">
-        <v>778</v>
-      </c>
-      <c r="U18" s="134">
-        <v>5813.38</v>
-      </c>
-      <c r="V18" s="134">
         <v>4299.26</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="127" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="159">
-        <f t="shared" si="0"/>
+        <f>F19+N19</f>
         <v>487</v>
       </c>
       <c r="D19" s="65">
@@ -18188,7 +18095,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.2135523613963042E-3</v>
       </c>
       <c r="H19" s="134">
@@ -18198,52 +18105,46 @@
         <v>0</v>
       </c>
       <c r="J19" s="134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="134">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="L19" s="134">
-        <v>136</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="M19" s="134">
-        <v>74.900000000000006</v>
+        <v>371</v>
       </c>
       <c r="N19" s="134">
-        <v>371</v>
-      </c>
-      <c r="O19" s="134">
         <v>483</v>
       </c>
-      <c r="P19" s="65">
-        <f t="shared" si="2"/>
+      <c r="O19" s="65">
+        <f>N19/C19</f>
         <v>0.99178644763860369</v>
       </c>
+      <c r="P19" s="134">
+        <v>6</v>
+      </c>
       <c r="Q19" s="134">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R19" s="134">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="S19" s="134">
-        <v>4</v>
+        <v>3068.71</v>
       </c>
       <c r="T19" s="134">
-        <v>21</v>
-      </c>
-      <c r="U19" s="134">
-        <v>3068.71</v>
-      </c>
-      <c r="V19" s="134">
         <v>2755.35</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="127" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="159">
-        <f t="shared" si="0"/>
+        <f>F20+N20</f>
         <v>480</v>
       </c>
       <c r="D20" s="65">
@@ -18257,62 +18158,56 @@
         <v>24</v>
       </c>
       <c r="G20" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="H20" s="134">
         <v>0</v>
       </c>
       <c r="I20" s="134">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J20" s="134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" s="134">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="L20" s="134">
         <v>60</v>
       </c>
       <c r="M20" s="134">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="N20" s="134">
-        <v>286</v>
-      </c>
-      <c r="O20" s="134">
         <v>456</v>
       </c>
-      <c r="P20" s="65">
-        <f t="shared" si="2"/>
+      <c r="O20" s="65">
+        <f>N20/C20</f>
         <v>0.95</v>
       </c>
+      <c r="P20" s="134">
+        <v>0</v>
+      </c>
       <c r="Q20" s="134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" s="134">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="S20" s="134">
-        <v>3</v>
+        <v>1420.932</v>
       </c>
       <c r="T20" s="134">
-        <v>337</v>
-      </c>
-      <c r="U20" s="134">
-        <v>1420.932</v>
-      </c>
-      <c r="V20" s="134">
         <v>1030.9639999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="128" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="161">
-        <f t="shared" si="0"/>
+        <f>F21+N21</f>
         <v>13000</v>
       </c>
       <c r="D21" s="110">
@@ -18328,71 +18223,63 @@
         <v>329</v>
       </c>
       <c r="G21" s="110">
+        <f t="shared" si="0"/>
+        <v>2.5307692307692309E-2</v>
+      </c>
+      <c r="H21" s="142">
+        <f t="shared" ref="H21:N21" si="1">SUM(H7:H20)</f>
+        <v>19</v>
+      </c>
+      <c r="I21" s="142">
         <f t="shared" si="1"/>
-        <v>2.5307692307692309E-2</v>
-      </c>
-      <c r="H21" s="142">
-        <f t="shared" ref="H21:O21" si="3">SUM(H7:H20)</f>
-        <v>19</v>
-      </c>
-      <c r="I21" s="142">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J21" s="142">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
       <c r="K21" s="142">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>8138.8</v>
       </c>
       <c r="L21" s="142">
-        <f t="shared" si="3"/>
-        <v>8138.8</v>
+        <f t="shared" si="1"/>
+        <v>5530.0999999999995</v>
       </c>
       <c r="M21" s="142">
-        <f t="shared" si="3"/>
-        <v>5530.0999999999995</v>
+        <f t="shared" si="1"/>
+        <v>10903</v>
       </c>
       <c r="N21" s="142">
-        <f t="shared" si="3"/>
-        <v>10903</v>
-      </c>
-      <c r="O21" s="142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12671</v>
       </c>
-      <c r="P21" s="110">
+      <c r="O21" s="110">
+        <f>N21/C21</f>
+        <v>0.97469230769230775</v>
+      </c>
+      <c r="P21" s="142">
+        <f t="shared" ref="P21:T21" si="2">SUM(P7:P20)</f>
+        <v>817</v>
+      </c>
+      <c r="Q21" s="142">
         <f t="shared" si="2"/>
-        <v>0.97469230769230775</v>
-      </c>
-      <c r="Q21" s="142">
-        <f t="shared" ref="Q21:V21" si="4">SUM(Q7:Q20)</f>
-        <v>817</v>
+        <v>45</v>
       </c>
       <c r="R21" s="142">
-        <f t="shared" si="4"/>
-        <v>985</v>
+        <f t="shared" si="2"/>
+        <v>3914</v>
       </c>
       <c r="S21" s="142">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>64361.361999999994</v>
       </c>
       <c r="T21" s="142">
-        <f t="shared" si="4"/>
-        <v>3914</v>
-      </c>
-      <c r="U21" s="142">
-        <f t="shared" si="4"/>
-        <v>64361.361999999994</v>
-      </c>
-      <c r="V21" s="142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>58747.803999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B22" s="74"/>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
@@ -18412,20 +18299,18 @@
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="M5:R5"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:C6"/>
@@ -18433,7 +18318,7 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -18515,7 +18400,7 @@
       <c r="I4" s="272"/>
       <c r="J4" s="273"/>
       <c r="K4" s="225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L4" s="225"/>
     </row>
@@ -18543,11 +18428,11 @@
       <c r="C6" s="297"/>
       <c r="D6" s="299"/>
       <c r="E6" s="225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="225"/>
       <c r="G6" s="271" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H6" s="272"/>
       <c r="I6" s="273"/>
@@ -19235,7 +19120,7 @@
       <c r="B4" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="253" t="s">
+      <c r="C4" s="264" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="269" t="s">
@@ -19253,7 +19138,7 @@
     </row>
     <row r="5" spans="2:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="219"/>
-      <c r="C5" s="253"/>
+      <c r="C5" s="264"/>
       <c r="D5" s="269"/>
       <c r="E5" s="34" t="s">
         <v>90</v>
@@ -19868,7 +19753,7 @@
         <v>154</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">

--- a/data_xlsx/2021_full_new.xlsx
+++ b/data_xlsx/2021_full_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0D6267-6282-4907-B03A-678991274FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556D6543-D544-4300-A764-5397195ED1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="20" activeTab="24" xr2:uid="{7641FC35-5562-4518-A86F-46CD1C5D6D09}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="15" activeTab="15" xr2:uid="{7641FC35-5562-4518-A86F-46CD1C5D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'6.1. Стаж ГС'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'6.2. Стаж МС'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'7. Сменяемость ГС'!$A$1:$Q$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'9. Конкурсы'!$A$1:$K$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'9. Конкурсы'!$A$1:$M$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -1379,7 +1379,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2031,6 +2031,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2236,39 +2242,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2276,16 +2249,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2382,6 +2388,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2699,598 +2708,598 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="188" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="187"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="187"/>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="187"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="187"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="187"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="187"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="187"/>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
+      <c r="A11" s="189"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="187"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="187"/>
-      <c r="B13" s="187"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="187"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="187"/>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="187"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="187"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="187"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="187"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="187"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="187"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="189"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="189"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="187"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="189"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="189"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="187"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="187"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-      <c r="N25" s="187"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="189"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="187"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="189"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="187"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="189"/>
+      <c r="N27" s="189"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="187"/>
-      <c r="B28" s="187"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="187"/>
-      <c r="B29" s="187"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="187"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="187"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="187"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="189"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="187"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="187"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="189"/>
+      <c r="M34" s="189"/>
+      <c r="N34" s="189"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="187"/>
-      <c r="B35" s="187"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="187"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="189"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="187"/>
-      <c r="B36" s="187"/>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="187"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="187"/>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="187"/>
-      <c r="N37" s="187"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="189"/>
+      <c r="L37" s="189"/>
+      <c r="M37" s="189"/>
+      <c r="N37" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3318,15 +3327,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="H3" s="8"/>
@@ -3786,15 +3795,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="217" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="H3" s="8"/>
@@ -4261,19 +4270,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="K3" s="8"/>
@@ -5039,19 +5048,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="K3" s="8"/>
@@ -5821,71 +5830,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="217" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
       <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="214" t="s">
+      <c r="D3" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="188" t="s">
+      <c r="E3" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="213" t="s">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="213" t="s">
+      <c r="N3" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="213" t="s">
+      <c r="O3" s="215" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="213" t="s">
+      <c r="P3" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="216" t="s">
+      <c r="Q3" s="218" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="216" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="34" t="s">
         <v>62</v>
       </c>
@@ -5910,11 +5919,11 @@
       <c r="L4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="217"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="219"/>
     </row>
     <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="127" t="s">
@@ -6838,32 +6847,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219" t="s">
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="29" t="s">
         <v>67</v>
       </c>
@@ -6873,7 +6882,7 @@
       <c r="E5" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="219"/>
+      <c r="F5" s="221"/>
     </row>
     <row r="6" spans="2:6" ht="204.75" x14ac:dyDescent="0.2">
       <c r="B6" s="127" t="s">
@@ -7147,733 +7156,813 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3760499A-C45C-434C-9BA6-833791C28206}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="31.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="221" t="s">
+    <row r="1" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-    </row>
-    <row r="2" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-    </row>
-    <row r="3" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-    </row>
-    <row r="4" spans="2:15" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="210" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+    </row>
+    <row r="2" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+    </row>
+    <row r="3" spans="2:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+    </row>
+    <row r="4" spans="2:17" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="186"/>
+      <c r="D4" s="226" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="225" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="227" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225" t="s">
+      <c r="G4" s="227"/>
+      <c r="H4" s="227" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225" t="s">
+      <c r="I4" s="227"/>
+      <c r="J4" s="227" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="225"/>
-      <c r="J4" s="222" t="s">
+      <c r="K4" s="227"/>
+      <c r="L4" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="K4" s="226" t="s">
+      <c r="M4" s="228" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="212"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>117</v>
-      </c>
+    <row r="5" spans="2:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="214"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="35" t="s">
         <v>116</v>
       </c>
       <c r="G5" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="223"/>
-      <c r="K5" s="226"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
+      <c r="L5" s="225"/>
+      <c r="M5" s="228"/>
       <c r="O5" s="98"/>
-    </row>
-    <row r="6" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+    </row>
+    <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="302">
+        <f>D6+L6</f>
+        <v>572</v>
+      </c>
+      <c r="D6" s="12">
         <v>223</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <v>18</v>
       </c>
-      <c r="E6" s="78">
-        <f t="shared" ref="E6:E20" si="0">D6/C6</f>
+      <c r="G6" s="78">
+        <f t="shared" ref="G6:G20" si="0">F6/D6</f>
         <v>8.0717488789237665E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="H6" s="12">
         <v>81</v>
       </c>
-      <c r="G6" s="78">
-        <f t="shared" ref="G6:G20" si="1">F6/C6</f>
+      <c r="I6" s="78">
+        <f t="shared" ref="I6:I20" si="1">H6/D6</f>
         <v>0.3632286995515695</v>
       </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="78">
-        <f t="shared" ref="I6:I20" si="2">H6/C6</f>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="78">
+        <f t="shared" ref="K6:K20" si="2">J6/D6</f>
         <v>4.4843049327354259E-3</v>
       </c>
-      <c r="J6" s="12">
+      <c r="L6" s="12">
         <v>349</v>
       </c>
-      <c r="K6" s="136" t="e">
-        <f>J6/#REF!</f>
+      <c r="M6" s="136" t="e">
+        <f>L6/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-    </row>
-    <row r="7" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="41"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+    </row>
+    <row r="7" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="302">
+        <f t="shared" ref="C7:C19" si="3">D7+L7</f>
+        <v>143</v>
+      </c>
+      <c r="D7" s="12">
         <v>66</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="78">
+      <c r="G7" s="78">
         <f t="shared" si="0"/>
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="H7" s="12">
         <v>19</v>
       </c>
-      <c r="G7" s="78">
+      <c r="I7" s="78">
         <f t="shared" si="1"/>
         <v>0.2878787878787879</v>
       </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="78">
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="12">
+      <c r="L7" s="12">
         <v>77</v>
       </c>
-      <c r="K7" s="136" t="e">
-        <f>J7/#REF!</f>
+      <c r="M7" s="136" t="e">
+        <f>L7/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-    </row>
-    <row r="8" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="41"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+    </row>
+    <row r="8" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="302">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="D8" s="12">
         <v>49</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="78">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="78">
         <f t="shared" si="0"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="H8" s="12">
         <v>15</v>
       </c>
-      <c r="G8" s="78">
+      <c r="I8" s="78">
         <f t="shared" si="1"/>
         <v>0.30612244897959184</v>
       </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="78">
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="12">
+      <c r="L8" s="12">
         <v>59</v>
       </c>
-      <c r="K8" s="136" t="e">
-        <f>J8/#REF!</f>
+      <c r="M8" s="136" t="e">
+        <f>L8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-    </row>
-    <row r="9" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="41"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+    </row>
+    <row r="9" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="302">
+        <f t="shared" si="3"/>
+        <v>729</v>
+      </c>
+      <c r="D9" s="12">
         <v>361</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <v>33</v>
       </c>
-      <c r="E9" s="78">
+      <c r="G9" s="78">
         <f t="shared" si="0"/>
         <v>9.141274238227147E-2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="H9" s="12">
         <v>124</v>
       </c>
-      <c r="G9" s="78">
+      <c r="I9" s="78">
         <f t="shared" si="1"/>
         <v>0.34349030470914127</v>
       </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="78">
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="L9" s="12">
         <v>368</v>
       </c>
-      <c r="K9" s="136" t="e">
-        <f>J9/#REF!</f>
+      <c r="M9" s="136" t="e">
+        <f>L9/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-    </row>
-    <row r="10" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="41"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+    </row>
+    <row r="10" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="302">
+        <f t="shared" si="3"/>
+        <v>269</v>
+      </c>
+      <c r="D10" s="12">
         <v>197</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <v>11</v>
       </c>
-      <c r="E10" s="78">
+      <c r="G10" s="78">
         <f t="shared" si="0"/>
         <v>5.5837563451776651E-2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="H10" s="12">
         <v>102</v>
       </c>
-      <c r="G10" s="78">
+      <c r="I10" s="78">
         <f t="shared" si="1"/>
         <v>0.51776649746192893</v>
       </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="78">
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="L10" s="12">
         <v>72</v>
       </c>
-      <c r="K10" s="136" t="e">
-        <f>J10/#REF!</f>
+      <c r="M10" s="136" t="e">
+        <f>L10/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-    </row>
-    <row r="11" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="41"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+    </row>
+    <row r="11" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="302">
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="D11" s="12">
         <v>122</v>
       </c>
-      <c r="D11" s="12">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
         <v>12</v>
       </c>
-      <c r="E11" s="78">
+      <c r="G11" s="78">
         <f t="shared" si="0"/>
         <v>9.8360655737704916E-2</v>
       </c>
-      <c r="F11" s="32">
+      <c r="H11" s="32">
         <v>24</v>
       </c>
-      <c r="G11" s="78">
+      <c r="I11" s="78">
         <f t="shared" si="1"/>
         <v>0.19672131147540983</v>
       </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="78">
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="12">
+      <c r="L11" s="12">
         <v>347</v>
       </c>
-      <c r="K11" s="136" t="e">
-        <f>J11/#REF!</f>
+      <c r="M11" s="136" t="e">
+        <f>L11/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-    </row>
-    <row r="12" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="41"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+    </row>
+    <row r="12" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="302">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="D12" s="12">
         <v>19</v>
       </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="78">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="H12" s="12">
         <v>4</v>
       </c>
-      <c r="G12" s="78">
+      <c r="I12" s="78">
         <f t="shared" si="1"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="L12" s="12">
         <v>140</v>
       </c>
-      <c r="K12" s="136" t="e">
-        <f>J12/#REF!</f>
+      <c r="M12" s="136" t="e">
+        <f>L12/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-    </row>
-    <row r="13" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="41"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+    </row>
+    <row r="13" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="302">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="D13" s="12">
         <v>65</v>
       </c>
-      <c r="D13" s="12">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
         <v>3</v>
       </c>
-      <c r="E13" s="78">
+      <c r="G13" s="78">
         <f t="shared" si="0"/>
         <v>4.6153846153846156E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="H13" s="12">
         <v>31</v>
       </c>
-      <c r="G13" s="78">
+      <c r="I13" s="78">
         <f t="shared" si="1"/>
         <v>0.47692307692307695</v>
       </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="78">
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="L13" s="12">
         <v>95</v>
       </c>
-      <c r="K13" s="136" t="e">
-        <f>J13/#REF!</f>
+      <c r="M13" s="136" t="e">
+        <f>L13/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-    </row>
-    <row r="14" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="41"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+    </row>
+    <row r="14" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="302">
+        <f t="shared" si="3"/>
+        <v>266</v>
+      </c>
+      <c r="D14" s="12">
         <v>128</v>
       </c>
-      <c r="D14" s="12">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <v>12</v>
       </c>
-      <c r="E14" s="78">
+      <c r="G14" s="78">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="F14" s="12">
+      <c r="H14" s="12">
         <v>41</v>
       </c>
-      <c r="G14" s="78">
+      <c r="I14" s="78">
         <f t="shared" si="1"/>
         <v>0.3203125</v>
       </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="78">
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="L14" s="12">
         <v>138</v>
       </c>
-      <c r="K14" s="136" t="e">
-        <f>J14/#REF!</f>
+      <c r="M14" s="136" t="e">
+        <f>L14/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-    </row>
-    <row r="15" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="41"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+    </row>
+    <row r="15" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="302">
+        <f t="shared" si="3"/>
+        <v>291</v>
+      </c>
+      <c r="D15" s="12">
         <v>216</v>
       </c>
-      <c r="D15" s="12">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
         <v>13</v>
       </c>
-      <c r="E15" s="78">
+      <c r="G15" s="78">
         <f t="shared" si="0"/>
         <v>6.0185185185185182E-2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="H15" s="12">
         <v>54</v>
       </c>
-      <c r="G15" s="78">
+      <c r="I15" s="78">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="78">
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="L15" s="12">
         <v>75</v>
       </c>
-      <c r="K15" s="136" t="e">
-        <f>J15/#REF!</f>
+      <c r="M15" s="136" t="e">
+        <f>L15/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-    </row>
-    <row r="16" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="41"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+    </row>
+    <row r="16" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="302">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="D16" s="12">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="78">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="12">
+      <c r="H16" s="12">
         <v>8</v>
       </c>
-      <c r="G16" s="78">
+      <c r="I16" s="78">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="78">
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="12">
+      <c r="L16" s="12">
         <v>229</v>
       </c>
-      <c r="K16" s="136" t="e">
-        <f>J16/#REF!</f>
+      <c r="M16" s="136" t="e">
+        <f>L16/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-    </row>
-    <row r="17" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="41"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+    </row>
+    <row r="17" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="302">
+        <f t="shared" si="3"/>
+        <v>514</v>
+      </c>
+      <c r="D17" s="12">
         <v>33</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
         <v>9</v>
       </c>
-      <c r="E17" s="78">
+      <c r="G17" s="78">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="F17" s="12">
+      <c r="H17" s="12">
         <v>22</v>
       </c>
-      <c r="G17" s="78">
+      <c r="I17" s="78">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="78">
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="12">
+      <c r="L17" s="12">
         <v>481</v>
       </c>
-      <c r="K17" s="136" t="e">
-        <f>J17/#REF!</f>
+      <c r="M17" s="136" t="e">
+        <f>L17/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-    </row>
-    <row r="18" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="41"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+    </row>
+    <row r="18" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="302">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D18" s="12">
         <v>4</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="78">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="12">
+      <c r="H18" s="12">
         <v>2</v>
       </c>
-      <c r="G18" s="78">
+      <c r="I18" s="78">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="78">
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="12">
+      <c r="L18" s="12">
         <v>64</v>
       </c>
-      <c r="K18" s="136" t="e">
-        <f>J18/#REF!</f>
+      <c r="M18" s="136" t="e">
+        <f>L18/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-    </row>
-    <row r="19" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="41"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+    </row>
+    <row r="19" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="302">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="D19" s="12">
         <v>135</v>
       </c>
-      <c r="D19" s="12">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="78">
+      <c r="G19" s="78">
         <f t="shared" si="0"/>
         <v>0.12592592592592591</v>
       </c>
-      <c r="F19" s="12">
+      <c r="H19" s="12">
         <v>34</v>
       </c>
-      <c r="G19" s="78">
+      <c r="I19" s="78">
         <f t="shared" si="1"/>
         <v>0.25185185185185183</v>
       </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="78">
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="12">
+      <c r="L19" s="12">
         <v>104</v>
       </c>
-      <c r="K19" s="136" t="e">
-        <f>J19/#REF!</f>
+      <c r="M19" s="136" t="e">
+        <f>L19/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-    </row>
-    <row r="20" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="41"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+    </row>
+    <row r="20" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9">
-        <f>SUM(C6:C19)</f>
-        <v>1648</v>
-      </c>
+      <c r="C20" s="128"/>
       <c r="D20" s="9">
         <f>SUM(D6:D19)</f>
+        <v>1648</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <f>SUM(F6:F19)</f>
         <v>134</v>
       </c>
-      <c r="E20" s="103">
+      <c r="G20" s="103">
         <f t="shared" si="0"/>
         <v>8.1310679611650491E-2</v>
       </c>
-      <c r="F20" s="9">
-        <f>SUM(F6:F19)</f>
+      <c r="H20" s="9">
+        <f>SUM(H6:H19)</f>
         <v>561</v>
       </c>
-      <c r="G20" s="103">
+      <c r="I20" s="103">
         <f t="shared" si="1"/>
         <v>0.34041262135922329</v>
       </c>
-      <c r="H20" s="9">
-        <f>SUM(H6:H19)</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="103">
+      <c r="J20" s="9">
+        <f>SUM(J6:J19)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="103">
         <f t="shared" si="2"/>
         <v>6.0679611650485432E-4</v>
       </c>
-      <c r="J20" s="9">
-        <f>SUM(J6:J19)</f>
+      <c r="L20" s="9">
+        <f>SUM(L6:L19)</f>
         <v>2598</v>
       </c>
-      <c r="K20" s="137" t="e">
-        <f>J20/#REF!</f>
+      <c r="M20" s="137" t="e">
+        <f>L20/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="9">
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7920,44 +8009,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="223" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="221"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
     </row>
     <row r="2" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40"/>
@@ -7970,70 +8059,70 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="220"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
     </row>
     <row r="4" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="228" t="s">
+      <c r="C4" s="230" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="234" t="s">
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="235"/>
-      <c r="M4" s="235"/>
-      <c r="N4" s="235"/>
-      <c r="O4" s="235"/>
-      <c r="P4" s="235"/>
-      <c r="Q4" s="235"/>
-      <c r="R4" s="236"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="238"/>
     </row>
     <row r="5" spans="2:20" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
-      <c r="F5" s="233"/>
-      <c r="G5" s="225" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="227" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225" t="s">
+      <c r="H5" s="227"/>
+      <c r="I5" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225" t="s">
+      <c r="J5" s="227"/>
+      <c r="K5" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="225"/>
-      <c r="M5" s="188" t="s">
+      <c r="L5" s="227"/>
+      <c r="M5" s="190" t="s">
         <v>186</v>
       </c>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="190"/>
-      <c r="Q5" s="188" t="s">
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="190" t="s">
         <v>189</v>
       </c>
-      <c r="R5" s="190"/>
+      <c r="R5" s="192"/>
     </row>
     <row r="6" spans="2:20" ht="192.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="219"/>
+      <c r="B6" s="221"/>
       <c r="C6" s="57" t="s">
         <v>190</v>
       </c>
@@ -9054,25 +9143,25 @@
       </c>
     </row>
     <row r="23" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="229" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="227"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="227"/>
-      <c r="R23" s="227"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="229"/>
+      <c r="L23" s="229"/>
+      <c r="M23" s="229"/>
+      <c r="N23" s="229"/>
+      <c r="O23" s="229"/>
+      <c r="P23" s="229"/>
+      <c r="Q23" s="229"/>
+      <c r="R23" s="229"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -9150,25 +9239,25 @@
       <c r="R1" s="59"/>
     </row>
     <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40"/>
@@ -9182,98 +9271,98 @@
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="226" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="239"/>
-      <c r="Q4" s="239"/>
-      <c r="R4" s="240"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="241"/>
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="242"/>
     </row>
     <row r="5" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="222" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="244" t="s">
+      <c r="E5" s="246" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="245"/>
-      <c r="G5" s="244" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="246" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="245"/>
-      <c r="I5" s="244" t="s">
+      <c r="H5" s="247"/>
+      <c r="I5" s="246" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="245"/>
-      <c r="K5" s="241" t="s">
+      <c r="J5" s="247"/>
+      <c r="K5" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="243"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="244"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="245"/>
     </row>
     <row r="6" spans="2:18" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="219"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="246"/>
-      <c r="J6" s="247"/>
-      <c r="K6" s="241" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="250"/>
-      <c r="M6" s="248" t="s">
+      <c r="L6" s="252"/>
+      <c r="M6" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="249"/>
-      <c r="O6" s="248" t="s">
+      <c r="N6" s="251"/>
+      <c r="O6" s="250" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="248" t="s">
+      <c r="P6" s="251"/>
+      <c r="Q6" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="R6" s="249"/>
+      <c r="R6" s="251"/>
     </row>
     <row r="7" spans="2:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="219"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="223"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="225"/>
       <c r="E7" s="60" t="s">
         <v>69</v>
       </c>
@@ -10241,25 +10330,25 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="237" t="s">
+      <c r="B24" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="237"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="237"/>
-      <c r="O24" s="237"/>
-      <c r="P24" s="237"/>
-      <c r="Q24" s="237"/>
-      <c r="R24" s="237"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="239"/>
+      <c r="G24" s="239"/>
+      <c r="H24" s="239"/>
+      <c r="I24" s="239"/>
+      <c r="J24" s="239"/>
+      <c r="K24" s="239"/>
+      <c r="L24" s="239"/>
+      <c r="M24" s="239"/>
+      <c r="N24" s="239"/>
+      <c r="O24" s="239"/>
+      <c r="P24" s="239"/>
+      <c r="Q24" s="239"/>
+      <c r="R24" s="239"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -10335,20 +10424,20 @@
       <c r="L1" s="59"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
     </row>
     <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40"/>
@@ -10358,108 +10447,108 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
       <c r="K3" s="37"/>
       <c r="L3" s="38"/>
     </row>
     <row r="4" spans="2:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="224" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="252"/>
-      <c r="F4" s="191" t="s">
+      <c r="E4" s="265"/>
+      <c r="F4" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="236"/>
-      <c r="I4" s="191" t="s">
+      <c r="H4" s="238"/>
+      <c r="I4" s="193" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="204" t="s">
+      <c r="J4" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="264" t="s">
+      <c r="K4" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="255"/>
       <c r="O4" s="114"/>
     </row>
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="255" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="258" t="s">
+      <c r="E5" s="263" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="222" t="s">
+      <c r="F5" s="256"/>
+      <c r="G5" s="224" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="204" t="s">
+      <c r="H5" s="206" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="266"/>
-      <c r="K5" s="253" t="s">
+      <c r="I5" s="256"/>
+      <c r="J5" s="261"/>
+      <c r="K5" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="264" t="s">
+      <c r="L5" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="264"/>
+      <c r="M5" s="255"/>
       <c r="O5" s="114"/>
     </row>
     <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="219"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="253" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="258" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="258" t="s">
+      <c r="M6" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="O6" s="225" t="s">
+      <c r="O6" s="227" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="263" t="s">
+      <c r="P6" s="254" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="219"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="262"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="254"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="268"/>
-      <c r="O7" s="225"/>
-      <c r="P7" s="263"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="260"/>
+      <c r="L7" s="260"/>
+      <c r="M7" s="264"/>
+      <c r="O7" s="227"/>
+      <c r="P7" s="254"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="127" t="s">
@@ -11231,6 +11320,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F4:F7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="L5:M5"/>
@@ -11242,15 +11340,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11287,93 +11376,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
     </row>
     <row r="4" spans="2:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="188" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="188" t="s">
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="188" t="s">
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="190"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="191"/>
+      <c r="R4" s="192"/>
     </row>
     <row r="5" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="195"/>
-      <c r="C5" s="191" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="188" t="s">
+      <c r="D5" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="191" t="s">
+      <c r="E5" s="191"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="191" t="s">
+      <c r="I5" s="191"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="L5" s="188" t="s">
+      <c r="L5" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="189"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="191" t="s">
+      <c r="M5" s="191"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="P5" s="188" t="s">
+      <c r="P5" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="190"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="192"/>
     </row>
     <row r="6" spans="2:18" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="196"/>
-      <c r="C6" s="192"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="27" t="s">
         <v>156</v>
       </c>
@@ -11383,7 +11472,7 @@
       <c r="F6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="192"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="27" t="s">
         <v>156</v>
       </c>
@@ -11393,7 +11482,7 @@
       <c r="J6" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="192"/>
+      <c r="K6" s="194"/>
       <c r="L6" s="27" t="s">
         <v>152</v>
       </c>
@@ -11403,7 +11492,7 @@
       <c r="N6" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="O6" s="192"/>
+      <c r="O6" s="194"/>
       <c r="P6" s="27" t="s">
         <v>151</v>
       </c>
@@ -12406,26 +12495,26 @@
       <c r="S1" s="69"/>
     </row>
     <row r="2" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="223"/>
     </row>
     <row r="3" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40"/>
@@ -12442,80 +12531,80 @@
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="69"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="220"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="234" t="s">
+      <c r="E4" s="236" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="235"/>
-      <c r="M4" s="235"/>
-      <c r="N4" s="235"/>
-      <c r="O4" s="235"/>
-      <c r="P4" s="235"/>
-      <c r="Q4" s="235"/>
-      <c r="R4" s="235"/>
-      <c r="S4" s="236"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="238"/>
     </row>
     <row r="5" spans="2:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="213" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="213" t="s">
+      <c r="F5" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="269" t="s">
+      <c r="G5" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="213" t="s">
+      <c r="H5" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="269" t="s">
+      <c r="I5" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="271" t="s">
+      <c r="J5" s="273" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="272"/>
-      <c r="L5" s="272"/>
-      <c r="M5" s="272"/>
-      <c r="N5" s="272"/>
-      <c r="O5" s="272"/>
-      <c r="P5" s="272"/>
-      <c r="Q5" s="272"/>
-      <c r="R5" s="272"/>
-      <c r="S5" s="273"/>
+      <c r="K5" s="274"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="275"/>
     </row>
     <row r="6" spans="2:21" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="219"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
       <c r="J6" s="34" t="s">
         <v>174</v>
       </c>
@@ -13647,19 +13736,19 @@
       <c r="J1" s="73"/>
     </row>
     <row r="2" spans="2:14" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
     </row>
     <row r="3" spans="2:14" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
@@ -13674,50 +13763,50 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="277" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="274" t="s">
+      <c r="D4" s="277"/>
+      <c r="E4" s="276" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
     </row>
     <row r="5" spans="2:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="275"/>
-      <c r="G5" s="276" t="s">
+      <c r="F5" s="277"/>
+      <c r="G5" s="278" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="277"/>
-      <c r="I5" s="275" t="s">
+      <c r="H5" s="279"/>
+      <c r="I5" s="277" t="s">
         <v>212</v>
       </c>
-      <c r="J5" s="275"/>
-      <c r="K5" s="219" t="s">
+      <c r="J5" s="277"/>
+      <c r="K5" s="221" t="s">
         <v>210</v>
       </c>
-      <c r="L5" s="219"/>
-      <c r="N5" s="263" t="s">
+      <c r="L5" s="221"/>
+      <c r="N5" s="254" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="219"/>
+      <c r="B6" s="221"/>
       <c r="C6" s="42" t="s">
         <v>84</v>
       </c>
@@ -13748,7 +13837,7 @@
       <c r="L6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="263"/>
+      <c r="N6" s="254"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="127" t="s">
@@ -14434,86 +14523,86 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
     </row>
     <row r="3" spans="1:20" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="264" t="s">
+      <c r="C4" s="255" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="234" t="s">
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="236" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="235"/>
-      <c r="M4" s="235"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="197" t="s">
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="199"/>
-      <c r="T4" s="263" t="s">
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="201"/>
+      <c r="T4" s="254" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="264" t="s">
+      <c r="H5" s="255"/>
+      <c r="I5" s="255"/>
+      <c r="J5" s="255"/>
+      <c r="K5" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="264"/>
-      <c r="M5" s="264"/>
-      <c r="N5" s="264"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="202"/>
-      <c r="T5" s="263"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="204"/>
+      <c r="T5" s="254"/>
     </row>
     <row r="6" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="219"/>
+      <c r="B6" s="221"/>
       <c r="C6" s="34" t="s">
         <v>84</v>
       </c>
@@ -14562,7 +14651,7 @@
       <c r="R6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="263"/>
+      <c r="T6" s="254"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="127" t="s">
@@ -15623,16 +15712,16 @@
       <c r="I1" s="73"/>
     </row>
     <row r="2" spans="2:15" s="66" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
     </row>
     <row r="3" spans="2:15" s="66" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
@@ -15645,54 +15734,54 @@
       <c r="I3" s="73"/>
     </row>
     <row r="4" spans="2:15" s="66" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="283" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="285" t="s">
+      <c r="D4" s="284"/>
+      <c r="E4" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="286"/>
-      <c r="I4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="289"/>
     </row>
     <row r="5" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="211"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="253" t="s">
+      <c r="B5" s="213"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="253" t="s">
+      <c r="F5" s="258" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="279" t="s">
+      <c r="G5" s="281" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="253" t="s">
+      <c r="H5" s="258" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="253" t="s">
+      <c r="I5" s="258" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="212"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="35" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="260"/>
       <c r="O6" s="66"/>
     </row>
     <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16181,23 +16270,23 @@
       <c r="N1" s="73"/>
     </row>
     <row r="2" spans="2:20" s="66" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
     </row>
     <row r="3" spans="2:20" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
@@ -16215,46 +16304,46 @@
       <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:20" s="66" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="273" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="273"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="275"/>
     </row>
     <row r="5" spans="2:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="211"/>
-      <c r="C5" s="283" t="s">
+      <c r="B5" s="213"/>
+      <c r="C5" s="285" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="283" t="s">
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="285" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="289"/>
-      <c r="I5" s="289"/>
-      <c r="J5" s="289"/>
-      <c r="K5" s="283" t="s">
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
+      <c r="K5" s="285" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="289"/>
-      <c r="M5" s="289"/>
-      <c r="N5" s="284"/>
+      <c r="L5" s="291"/>
+      <c r="M5" s="291"/>
+      <c r="N5" s="286"/>
       <c r="O5" s="121" t="s">
         <v>203</v>
       </c>
@@ -16263,38 +16352,38 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="211"/>
-      <c r="C6" s="271" t="s">
+      <c r="B6" s="213"/>
+      <c r="C6" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="273"/>
-      <c r="E6" s="271" t="s">
+      <c r="D6" s="275"/>
+      <c r="E6" s="273" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="273"/>
-      <c r="G6" s="271" t="s">
+      <c r="F6" s="275"/>
+      <c r="G6" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="273"/>
-      <c r="I6" s="271" t="s">
+      <c r="H6" s="275"/>
+      <c r="I6" s="273" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="273"/>
-      <c r="K6" s="271" t="s">
+      <c r="J6" s="275"/>
+      <c r="K6" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="L6" s="273"/>
-      <c r="M6" s="271" t="s">
+      <c r="L6" s="275"/>
+      <c r="M6" s="273" t="s">
         <v>131</v>
       </c>
-      <c r="N6" s="273"/>
-      <c r="O6" s="290" t="s">
+      <c r="N6" s="275"/>
+      <c r="O6" s="292" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="291"/>
+      <c r="P6" s="293"/>
     </row>
     <row r="7" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="212"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="35" t="s">
         <v>129</v>
       </c>
@@ -17062,23 +17151,23 @@
       <c r="B23" s="74"/>
     </row>
     <row r="24" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="288" t="s">
+      <c r="B24" s="290" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="288"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="288"/>
-      <c r="H24" s="288"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="288"/>
-      <c r="L24" s="288"/>
-      <c r="M24" s="288"/>
-      <c r="N24" s="288"/>
-      <c r="O24" s="288"/>
-      <c r="P24" s="288"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="290"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="290"/>
+      <c r="P24" s="290"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -17111,7 +17200,7 @@
   </sheetPr>
   <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -17162,27 +17251,27 @@
       <c r="T1" s="73"/>
     </row>
     <row r="2" spans="2:20" s="66" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="278"/>
-      <c r="R2" s="278"/>
-      <c r="S2" s="278"/>
-      <c r="T2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
+      <c r="Q2" s="280"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="280"/>
+      <c r="T2" s="280"/>
     </row>
     <row r="3" spans="2:20" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
@@ -17206,71 +17295,71 @@
       <c r="T3" s="73"/>
     </row>
     <row r="4" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="271" t="s">
+      <c r="D4" s="192"/>
+      <c r="E4" s="273" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="225" t="s">
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="227" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="225"/>
-      <c r="R4" s="225"/>
-      <c r="S4" s="225"/>
-      <c r="T4" s="225"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="227"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="227"/>
+      <c r="R4" s="227"/>
+      <c r="S4" s="227"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="294" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="271" t="s">
+      <c r="E5" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="272"/>
-      <c r="G5" s="272"/>
-      <c r="H5" s="272"/>
-      <c r="I5" s="272"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="225" t="s">
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="275"/>
+      <c r="K5" s="227" t="s">
         <v>139</v>
       </c>
-      <c r="L5" s="225"/>
-      <c r="M5" s="271" t="s">
+      <c r="L5" s="227"/>
+      <c r="M5" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="272"/>
-      <c r="O5" s="272"/>
-      <c r="P5" s="272"/>
-      <c r="Q5" s="272"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="225" t="s">
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="275"/>
+      <c r="S5" s="227" t="s">
         <v>206</v>
       </c>
-      <c r="T5" s="225"/>
+      <c r="T5" s="227"/>
     </row>
     <row r="6" spans="2:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="219"/>
-      <c r="C6" s="295"/>
-      <c r="D6" s="293"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="295"/>
       <c r="E6" s="42" t="s">
         <v>129</v>
       </c>
@@ -17325,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="159">
-        <f>F7+N7</f>
+        <f t="shared" ref="C7:C21" si="0">F7+N7</f>
         <v>2656</v>
       </c>
       <c r="D7" s="65">
@@ -17364,7 +17453,7 @@
         <v>2544</v>
       </c>
       <c r="O7" s="65">
-        <f>N7/C7</f>
+        <f t="shared" ref="O7:O21" si="1">N7/C7</f>
         <v>0.95783132530120485</v>
       </c>
       <c r="P7" s="134">
@@ -17388,7 +17477,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="159">
-        <f>F8+N8</f>
+        <f t="shared" si="0"/>
         <v>479</v>
       </c>
       <c r="D8" s="65">
@@ -17402,7 +17491,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="65">
-        <f t="shared" ref="G8:G21" si="0">F8/C8</f>
+        <f t="shared" ref="G8:G21" si="2">F8/C8</f>
         <v>6.6805845511482248E-2</v>
       </c>
       <c r="H8" s="134">
@@ -17427,7 +17516,7 @@
         <v>447</v>
       </c>
       <c r="O8" s="65">
-        <f>N8/C8</f>
+        <f t="shared" si="1"/>
         <v>0.93319415448851772</v>
       </c>
       <c r="P8" s="134">
@@ -17451,7 +17540,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="159">
-        <f>F9+N9</f>
+        <f t="shared" si="0"/>
         <v>384</v>
       </c>
       <c r="D9" s="65">
@@ -17465,7 +17554,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.59375E-2</v>
       </c>
       <c r="H9" s="134">
@@ -17490,7 +17579,7 @@
         <v>351</v>
       </c>
       <c r="O9" s="65">
-        <f>N9/C9</f>
+        <f t="shared" si="1"/>
         <v>0.9140625</v>
       </c>
       <c r="P9" s="134">
@@ -17514,7 +17603,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="159">
-        <f>F10+N10</f>
+        <f t="shared" si="0"/>
         <v>1646</v>
       </c>
       <c r="D10" s="65">
@@ -17528,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="134">
@@ -17553,7 +17642,7 @@
         <v>1646</v>
       </c>
       <c r="O10" s="65">
-        <f>N10/C10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" s="134">
@@ -17577,7 +17666,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="159">
-        <f>F11+N11</f>
+        <f t="shared" si="0"/>
         <v>1172</v>
       </c>
       <c r="D11" s="65">
@@ -17591,7 +17680,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1194539249146756E-3</v>
       </c>
       <c r="H11" s="134">
@@ -17616,7 +17705,7 @@
         <v>1166</v>
       </c>
       <c r="O11" s="65">
-        <f>N11/C11</f>
+        <f t="shared" si="1"/>
         <v>0.99488054607508536</v>
       </c>
       <c r="P11" s="134">
@@ -17640,7 +17729,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="159">
-        <f>F12+N12</f>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="D12" s="65">
@@ -17654,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="134">
@@ -17679,7 +17768,7 @@
         <v>186</v>
       </c>
       <c r="O12" s="65">
-        <f>N12/C12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P12" s="134">
@@ -17703,7 +17792,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="159">
-        <f>F13+N13</f>
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="D13" s="65">
@@ -17717,7 +17806,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7407407407407408E-2</v>
       </c>
       <c r="H13" s="134">
@@ -17742,7 +17831,7 @@
         <v>1313</v>
       </c>
       <c r="O13" s="65">
-        <f>N13/C13</f>
+        <f t="shared" si="1"/>
         <v>0.97259259259259256</v>
       </c>
       <c r="P13" s="134">
@@ -17766,7 +17855,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="159">
-        <f>F14+N14</f>
+        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="D14" s="65">
@@ -17780,7 +17869,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.352941176470588E-3</v>
       </c>
       <c r="H14" s="134">
@@ -17805,7 +17894,7 @@
         <v>424</v>
       </c>
       <c r="O14" s="65">
-        <f>N14/C14</f>
+        <f t="shared" si="1"/>
         <v>0.99764705882352944</v>
       </c>
       <c r="P14" s="134">
@@ -17829,7 +17918,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="159">
-        <f>F15+N15</f>
+        <f t="shared" si="0"/>
         <v>1021</v>
       </c>
       <c r="D15" s="65">
@@ -17843,7 +17932,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2321253672869733E-2</v>
       </c>
       <c r="H15" s="134">
@@ -17868,7 +17957,7 @@
         <v>988</v>
       </c>
       <c r="O15" s="65">
-        <f>N15/C15</f>
+        <f t="shared" si="1"/>
         <v>0.96767874632713025</v>
       </c>
       <c r="P15" s="134">
@@ -17892,7 +17981,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="159">
-        <f>F16+N16</f>
+        <f t="shared" si="0"/>
         <v>1041</v>
       </c>
       <c r="D16" s="65">
@@ -17906,7 +17995,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4015369836695485E-2</v>
       </c>
       <c r="H16" s="134">
@@ -17931,7 +18020,7 @@
         <v>1016</v>
       </c>
       <c r="O16" s="65">
-        <f>N16/C16</f>
+        <f t="shared" si="1"/>
         <v>0.9759846301633045</v>
       </c>
       <c r="P16" s="134">
@@ -17955,7 +18044,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="159">
-        <f>F17+N17</f>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="D17" s="65">
@@ -17969,7 +18058,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2644628099173556E-3</v>
       </c>
       <c r="H17" s="134">
@@ -17994,7 +18083,7 @@
         <v>600</v>
       </c>
       <c r="O17" s="65">
-        <f>N17/C17</f>
+        <f t="shared" si="1"/>
         <v>0.99173553719008267</v>
       </c>
       <c r="P17" s="134">
@@ -18018,7 +18107,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="159">
-        <f>F18+N18</f>
+        <f t="shared" si="0"/>
         <v>1068</v>
       </c>
       <c r="D18" s="65">
@@ -18032,7 +18121,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5917602996254682E-2</v>
       </c>
       <c r="H18" s="134">
@@ -18057,7 +18146,7 @@
         <v>1051</v>
       </c>
       <c r="O18" s="65">
-        <f>N18/C18</f>
+        <f t="shared" si="1"/>
         <v>0.98408239700374533</v>
       </c>
       <c r="P18" s="134">
@@ -18081,7 +18170,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="159">
-        <f>F19+N19</f>
+        <f t="shared" si="0"/>
         <v>487</v>
       </c>
       <c r="D19" s="65">
@@ -18095,7 +18184,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2135523613963042E-3</v>
       </c>
       <c r="H19" s="134">
@@ -18120,7 +18209,7 @@
         <v>483</v>
       </c>
       <c r="O19" s="65">
-        <f>N19/C19</f>
+        <f t="shared" si="1"/>
         <v>0.99178644763860369</v>
       </c>
       <c r="P19" s="134">
@@ -18144,7 +18233,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="159">
-        <f>F20+N20</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="D20" s="65">
@@ -18158,7 +18247,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="H20" s="134">
@@ -18183,7 +18272,7 @@
         <v>456</v>
       </c>
       <c r="O20" s="65">
-        <f>N20/C20</f>
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
       <c r="P20" s="134">
@@ -18207,7 +18296,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="161">
-        <f>F21+N21</f>
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="D21" s="110">
@@ -18223,59 +18312,59 @@
         <v>329</v>
       </c>
       <c r="G21" s="110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5307692307692309E-2</v>
       </c>
       <c r="H21" s="142">
-        <f t="shared" ref="H21:N21" si="1">SUM(H7:H20)</f>
+        <f t="shared" ref="H21:N21" si="3">SUM(H7:H20)</f>
         <v>19</v>
       </c>
       <c r="I21" s="142">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J21" s="142">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="K21" s="142">
+        <f t="shared" si="3"/>
+        <v>8138.8</v>
+      </c>
+      <c r="L21" s="142">
+        <f t="shared" si="3"/>
+        <v>5530.0999999999995</v>
+      </c>
+      <c r="M21" s="142">
+        <f t="shared" si="3"/>
+        <v>10903</v>
+      </c>
+      <c r="N21" s="142">
+        <f t="shared" si="3"/>
+        <v>12671</v>
+      </c>
+      <c r="O21" s="110">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J21" s="142">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="K21" s="142">
-        <f t="shared" si="1"/>
-        <v>8138.8</v>
-      </c>
-      <c r="L21" s="142">
-        <f t="shared" si="1"/>
-        <v>5530.0999999999995</v>
-      </c>
-      <c r="M21" s="142">
-        <f t="shared" si="1"/>
-        <v>10903</v>
-      </c>
-      <c r="N21" s="142">
-        <f t="shared" si="1"/>
-        <v>12671</v>
-      </c>
-      <c r="O21" s="110">
-        <f>N21/C21</f>
         <v>0.97469230769230775</v>
       </c>
       <c r="P21" s="142">
-        <f t="shared" ref="P21:T21" si="2">SUM(P7:P20)</f>
+        <f t="shared" ref="P21:T21" si="4">SUM(P7:P20)</f>
         <v>817</v>
       </c>
       <c r="Q21" s="142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="R21" s="142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3914</v>
       </c>
       <c r="S21" s="142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64361.361999999994</v>
       </c>
       <c r="T21" s="142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58747.803999999996</v>
       </c>
     </row>
@@ -18358,19 +18447,19 @@
       <c r="L1" s="73"/>
     </row>
     <row r="2" spans="2:12" s="66" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
     </row>
     <row r="3" spans="2:12" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
@@ -18386,70 +18475,70 @@
       <c r="L3" s="73"/>
     </row>
     <row r="4" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="273" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="225" t="s">
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="227" t="s">
         <v>207</v>
       </c>
-      <c r="L4" s="225"/>
+      <c r="L4" s="227"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="211"/>
-      <c r="C5" s="296" t="s">
+      <c r="B5" s="213"/>
+      <c r="C5" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
     </row>
     <row r="6" spans="2:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="211"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="225" t="s">
+      <c r="B6" s="213"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="227" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="225"/>
-      <c r="G6" s="271" t="s">
+      <c r="F6" s="227"/>
+      <c r="G6" s="273" t="s">
         <v>214</v>
       </c>
-      <c r="H6" s="272"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="294" t="s">
+      <c r="H6" s="274"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="294" t="s">
+      <c r="K6" s="296" t="s">
         <v>129</v>
       </c>
-      <c r="L6" s="294" t="s">
+      <c r="L6" s="296" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="212"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="293"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="295"/>
       <c r="E7" s="30" t="s">
         <v>129</v>
       </c>
@@ -18465,9 +18554,9 @@
       <c r="I7" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="295"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="295"/>
+      <c r="J7" s="297"/>
+      <c r="K7" s="297"/>
+      <c r="L7" s="297"/>
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="127" t="s">
@@ -19095,16 +19184,16 @@
       <c r="I1" s="73"/>
     </row>
     <row r="2" spans="2:9" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
     </row>
     <row r="3" spans="2:9" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="126"/>
@@ -19117,29 +19206,29 @@
       <c r="I3" s="126"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="264" t="s">
+      <c r="C4" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="271" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="294" t="s">
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="296" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="269"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="271"/>
       <c r="E5" s="34" t="s">
         <v>90</v>
       </c>
@@ -19152,7 +19241,7 @@
       <c r="H5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="295"/>
+      <c r="I5" s="297"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="127" t="s">
@@ -19657,75 +19746,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
     </row>
     <row r="4" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="190" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="188" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="188" t="s">
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="190" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="190"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
     </row>
     <row r="5" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="195"/>
-      <c r="C5" s="191" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="188" t="s">
+      <c r="D5" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="191" t="s">
+      <c r="E5" s="191"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="191" t="s">
+      <c r="I5" s="191"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="L5" s="188" t="s">
+      <c r="L5" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="189"/>
-      <c r="N5" s="190"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="192"/>
     </row>
     <row r="6" spans="2:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="196"/>
-      <c r="C6" s="192"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="27" t="s">
         <v>160</v>
       </c>
@@ -19735,7 +19824,7 @@
       <c r="F6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="192"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="27" t="s">
         <v>152</v>
       </c>
@@ -19745,7 +19834,7 @@
       <c r="J6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="192"/>
+      <c r="K6" s="194"/>
       <c r="L6" s="27" t="s">
         <v>160</v>
       </c>
@@ -20511,13 +20600,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="8"/>
@@ -20922,13 +21011,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="8"/>
@@ -21342,20 +21431,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L3" s="8"/>
@@ -22151,20 +22240,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L3" s="8"/>
@@ -22977,101 +23066,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="197" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="199" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="191" t="s">
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="204" t="s">
+      <c r="V4" s="206" t="s">
         <v>36</v>
       </c>
       <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="208"/>
-      <c r="C5" s="191" t="s">
+      <c r="B5" s="210"/>
+      <c r="C5" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="202"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="205"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="207"/>
       <c r="Y5" s="52"/>
     </row>
     <row r="6" spans="2:27" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="209"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="206"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="35" t="s">
         <v>112</v>
       </c>
@@ -23120,8 +23209,8 @@
       <c r="T6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="192"/>
-      <c r="V6" s="206"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="208"/>
       <c r="Y6" s="52"/>
     </row>
     <row r="7" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -24500,103 +24589,103 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.2">
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="197" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="199" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="191" t="s">
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="204" t="s">
+      <c r="V4" s="206" t="s">
         <v>36</v>
       </c>
       <c r="X4"/>
       <c r="Y4"/>
     </row>
     <row r="5" spans="2:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="211"/>
-      <c r="C5" s="213" t="s">
+      <c r="B5" s="213"/>
+      <c r="C5" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="202"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="205"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="207"/>
       <c r="X5"/>
       <c r="Y5"/>
     </row>
     <row r="6" spans="2:26" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="212"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="35" t="s">
         <v>112</v>
       </c>
@@ -24645,8 +24734,8 @@
       <c r="T6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="192"/>
-      <c r="V6" s="206"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="208"/>
       <c r="X6"/>
       <c r="Y6"/>
     </row>
